--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\халтура\Pablo Hookahbar\Pablo-hookahbar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5984490E-C693-4332-97D8-735E9917C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4797C4D6-2410-4024-8493-139BFC360777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9555" yWindow="4215" windowWidth="19245" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="372">
   <si>
     <t>Назание</t>
   </si>
@@ -51,18 +51,12 @@
     <t>Феникс.jpg</t>
   </si>
   <si>
-    <t>Сенча, Зелёный с мятой, Горный чабрец, Зелёный с жасмином, Молочный улун, Зелёный с имбирем,Те гуаньинь, С корицей и мёдом</t>
-  </si>
-  <si>
     <t>Авторский на розе</t>
   </si>
   <si>
     <t>Авторский на розе.jpg</t>
   </si>
   <si>
-    <t>Сенча - Зелёный с мятой - Горный чабрец - Зелёный с жасмином - Молочный улун - Зелёный с имбирем - Те гуаньинь - С корицей и мёдом</t>
-  </si>
-  <si>
     <t>Вес/объём</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>Уилсон</t>
   </si>
   <si>
-    <t>Кока-кола, Спрайт, Фанта, Швепс</t>
-  </si>
-  <si>
     <t>Уилсон.jpg</t>
   </si>
   <si>
@@ -87,98 +78,1093 @@
     <t>Помело.jpg</t>
   </si>
   <si>
+    <t>Снэки</t>
+  </si>
+  <si>
+    <t>Гренки</t>
+  </si>
+  <si>
+    <t>Гренки.jpg</t>
+  </si>
+  <si>
+    <t>Начос</t>
+  </si>
+  <si>
+    <t>Начос.jpg</t>
+  </si>
+  <si>
+    <t>Фисташки</t>
+  </si>
+  <si>
+    <t>Фисташки.jpg</t>
+  </si>
+  <si>
+    <t>Гранат</t>
+  </si>
+  <si>
+    <t>Гранат.jpg</t>
+  </si>
+  <si>
+    <t>Грейпфрут</t>
+  </si>
+  <si>
+    <t>Грейпфрут.jpg</t>
+  </si>
+  <si>
+    <t>Ананас</t>
+  </si>
+  <si>
+    <t>Ананас.jpg</t>
+  </si>
+  <si>
+    <t>Арбуз</t>
+  </si>
+  <si>
+    <t>Арбуз.jpg</t>
+  </si>
+  <si>
+    <t>Дыня</t>
+  </si>
+  <si>
+    <t>Дыня.jpg</t>
+  </si>
+  <si>
+    <t>На чаше</t>
+  </si>
+  <si>
+    <t>На чаше.jpg</t>
+  </si>
+  <si>
+    <t>Добавки в колбу</t>
+  </si>
+  <si>
     <t>Чай черный</t>
   </si>
   <si>
     <t>Английский завтрак</t>
   </si>
   <si>
+    <t xml:space="preserve">Да Хун Пао </t>
+  </si>
+  <si>
+    <t>Екатерина Великая</t>
+  </si>
+  <si>
+    <t>Пуэр</t>
+  </si>
+  <si>
+    <t>Старомонастырский</t>
+  </si>
+  <si>
+    <t>Татарский</t>
+  </si>
+  <si>
+    <t>Черный с чабрецом</t>
+  </si>
+  <si>
+    <t>Эрл Грей</t>
+  </si>
+  <si>
     <t>Английский завтрак.jpg</t>
   </si>
   <si>
+    <t>Да Хун Пао.jpg</t>
+  </si>
+  <si>
+    <t>Екатерина Великая.jpg</t>
+  </si>
+  <si>
+    <t>Пуэр.jpg</t>
+  </si>
+  <si>
+    <t>Старомонастырский.jpg</t>
+  </si>
+  <si>
+    <t>Татарский.jpg</t>
+  </si>
+  <si>
+    <t>Черный с чабрецом.jpg</t>
+  </si>
+  <si>
+    <t>Эрл Грей.jpg</t>
+  </si>
+  <si>
     <t>Купаж отборных индийских, цейлонский и кенийских чаев. Бодрящий и согревающий. Этот чай идеально сочетается с молоком или лимоном.</t>
   </si>
   <si>
-    <t>Да Хун Пао</t>
-  </si>
-  <si>
-    <t>Да Хун Пао.jpg</t>
-  </si>
-  <si>
-    <t>Относят к улунам сильной ферментации и оттенками фруктовых ноток. Листья долго обжаривают на древесных углях и быстро скручивают вручную.  Это один из самых известных китайских сортов чая.</t>
-  </si>
-  <si>
-    <t>Екатерина Великая</t>
-  </si>
-  <si>
-    <t>Екатерина Великая.jpg</t>
+    <t>Относят к улунам сильной ферментации и оттенками фруктовых ноток. Листья долго обжаривают на древесных углях и быстро скручивают вручную.  Это один из самых известных китайских сортов чая.</t>
   </si>
   <si>
     <t>Основой для этой чайной композиции служит знаменитый цейлонский чай, который изящно подчеркивает ароматы гибискуса, лепестков роз, клубники и ежевики.</t>
   </si>
   <si>
-    <t>Пуэр</t>
-  </si>
-  <si>
-    <t>Пуэр.jpg</t>
-  </si>
-  <si>
     <t>Листовой шу пуэр из провинции Юньнань. Настой тёмного цвета с ярким вкусомс нотками сухофруктов, орехов и насыщенным ароматом с оттенком древесной коры.</t>
   </si>
   <si>
-    <t>Снэки</t>
-  </si>
-  <si>
-    <t>Гренки</t>
-  </si>
-  <si>
-    <t>Гренки.jpg</t>
-  </si>
-  <si>
-    <t>150г</t>
-  </si>
-  <si>
-    <t>Сметана и лук
-Чеснок</t>
-  </si>
-  <si>
-    <t>Начос</t>
-  </si>
-  <si>
-    <t>Начос.jpg</t>
-  </si>
-  <si>
-    <t>Сенча, Зелёный с мятой, Горный чабрец, Зелёный с жасмином, Молочный улун</t>
-  </si>
-  <si>
-    <t>Солёный арахис</t>
-  </si>
-  <si>
-    <t>Солёный арахис.jpg</t>
-  </si>
-  <si>
-    <t>100г</t>
-  </si>
-  <si>
-    <t>Фисташки</t>
-  </si>
-  <si>
-    <t>Фисташки.jpg</t>
-  </si>
-  <si>
-    <t>Сенча - Зелёный с мятой - Горный чабрец - Зелёный с жасмином</t>
+    <t>Чёрный чай с цветами липы, ягодами бузины, цветами клевера, зверобоем, плодами шиповника, тысячелистником, мятой и семенами льна.</t>
+  </si>
+  <si>
+    <t>Чай чёрный ассам, китайский зелёный чай ганпаудер, зверобой, чабрец, листья мяты, цветы липы, цветки ромашки, цветки сафлора. Без ароматизаторов. Сорт высший.</t>
+  </si>
+  <si>
+    <t>Сочетание чёрного чая с чабрецом и лепестками календулы обладает ярко выраженным вкусом с нотками пикантности и сладости. Отлично смягчают и оттеняют вкус чёрного чая.</t>
+  </si>
+  <si>
+    <t>Черный чай, ароматизированный натуральными маслами бергамота, является традиционной классикой вкуса. Известен уже более ста лет и является излюбленным сортом чая у англичан.</t>
+  </si>
+  <si>
+    <t>Чай зеленый</t>
+  </si>
+  <si>
+    <t>Зеленый с имбирем</t>
+  </si>
+  <si>
+    <t>Зеленый с мятой</t>
+  </si>
+  <si>
+    <t>Зеленый с чабрецом</t>
+  </si>
+  <si>
+    <t>Моли Хуа Ча</t>
+  </si>
+  <si>
+    <t>Молочный улун</t>
+  </si>
+  <si>
+    <t>Сенча</t>
+  </si>
+  <si>
+    <t>Те Гуаньинь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зелёный чай сенча с кусочками имбиря, апельсиновой цедрой, лимонником и медовыми гранулами. При заваривании ощущается терпкий вкус с имбирными нотами и лимонным послевкусием. </t>
+  </si>
+  <si>
+    <t>Зелёный чай ганпаудер с освежающим ароматом мяты.</t>
+  </si>
+  <si>
+    <t>Зелёный чай сенча с добавлением чабреца, мяты, листьев стевии, брусничного листа и цветков бессмертника. Без ароматизаторов.</t>
+  </si>
+  <si>
+    <t>Этот улун ароматизирован путем совместного выдерживания высокосортного китайского улуна и цветов жасмина, которые дополняют и "играют" со вкусом чая, придавая ему неповторимый аромат.</t>
+  </si>
+  <si>
+    <t>Знаменитый китайский улун с удивительно нежным цветочным вкусом и сладким сливочным ароматом. Всеобщий любимец.</t>
+  </si>
+  <si>
+    <t>Смесь двух классических китайских чаёв: ганпаудера и сенчи. Приятный мягкий вкус, со сладковатыми нотками в послевкусии.</t>
+  </si>
+  <si>
+    <t>Улун, выращенный на юге провинции Фуцзянь, - один из самых знаменитых бирюзовых китайских чаёв. Чай с фруктовыми нотами и нежным ароматом цветущего сада.</t>
+  </si>
+  <si>
+    <t>Зеленый с имбирем.jpg</t>
+  </si>
+  <si>
+    <t>Зеленый с мятой.jpg</t>
+  </si>
+  <si>
+    <t>Зеленый с чабрецом.jpg</t>
+  </si>
+  <si>
+    <t>Моли Хуа Ча.jpg</t>
+  </si>
+  <si>
+    <t>Молочный улун.jpg</t>
+  </si>
+  <si>
+    <t>Сенча.jpg</t>
+  </si>
+  <si>
+    <t>Те Гуаньинь.jpg</t>
+  </si>
+  <si>
+    <t>Чай фруктовый</t>
+  </si>
+  <si>
+    <t>Вишневый пунш</t>
+  </si>
+  <si>
+    <t>Вот фрукт</t>
+  </si>
+  <si>
+    <t>Дикая вишня</t>
+  </si>
+  <si>
+    <t>Земляничный десерт</t>
+  </si>
+  <si>
+    <t>Каркаде</t>
+  </si>
+  <si>
+    <t>Клубничный десерт</t>
+  </si>
+  <si>
+    <t>Пина Колада</t>
+  </si>
+  <si>
+    <t>Чайный напиток с гибискусом, плодами шиповника, красной смородиной, ягодами клюквы и бузины. Обладает нежным ароматом вишни.</t>
+  </si>
+  <si>
+    <t>Чайный напиток на основе гибискуса с кусочками яблока, папайи, ананаса, шиповником и сладким изюмом и фруктовым ароматом</t>
+  </si>
+  <si>
+    <t>Купаж ароматных плантационных чаёв Ассам и Цейлон в сочетании с кусочками клюквы и листьями грецкого ореха, имеет богатый насыщенный вкус и душистый аромат лесной вишни.</t>
+  </si>
+  <si>
+    <t>Смесь цейлонских и индийских чаёв с добавлением ягод и листьев земляники.</t>
+  </si>
+  <si>
+    <t>Чайный напиток на основе высушенных цветков гибискуса (суданской розы). Настой ярко-красного цвета обладает сладковато-кислым вкусом. В арабских странах получил широкое применение в медицине и считается "лекарством от всех болезней". Можно пить и горячим, и охлаждённым.</t>
+  </si>
+  <si>
+    <t>Смесь цейлонских и индийских чаев с добавлением ягод и листьев клубники и лепестков сафлора.</t>
+  </si>
+  <si>
+    <t>Чайный напиток с гибискусом, кусочками яблока и ананаса, шиповником, кокосовой стружкой и ароматом пина-колады и ванили.</t>
+  </si>
+  <si>
+    <t>Вишневый пунш.jpg</t>
+  </si>
+  <si>
+    <t>Вот фрукт.jpg</t>
+  </si>
+  <si>
+    <t>Дикая вишня.jpg</t>
+  </si>
+  <si>
+    <t>Земляничный десерт.jpg</t>
+  </si>
+  <si>
+    <t>Каркаде.jpg</t>
+  </si>
+  <si>
+    <t>Клубничный десерт.jpg</t>
+  </si>
+  <si>
+    <t>Пина Колада.jpg</t>
+  </si>
+  <si>
+    <t>Сок - 200₽&lt;br&gt;
+Молоко - 200₽&lt;br&gt;
+Кофе - 200₽&lt;br&gt;
+Вино - 400₽&lt;br&gt;
+Ром - 500₽</t>
+  </si>
+  <si>
+    <t>Чай авторский</t>
+  </si>
+  <si>
+    <t>Масала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Облепиховый </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имбирный </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Малиновый </t>
+  </si>
+  <si>
+    <t>Масала.jpg</t>
+  </si>
+  <si>
+    <t>Облепиховый.jpg</t>
+  </si>
+  <si>
+    <t>Имбирный.jpg</t>
+  </si>
+  <si>
+    <t>Малиновый.jpg</t>
+  </si>
+  <si>
+    <t>Клубника-Маракуйя</t>
+  </si>
+  <si>
+    <t>Клубника-Маракуйя.jpg</t>
+  </si>
+  <si>
+    <t>Кофе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ристретто </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эспрессо </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Американо </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Капучино </t>
+  </si>
+  <si>
+    <t>Капучино фисташковый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Латте </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гляссе </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раф </t>
+  </si>
+  <si>
+    <t>Ристретто.jpg</t>
+  </si>
+  <si>
+    <t>Эспрессо.jpg</t>
+  </si>
+  <si>
+    <t>Американо.jpg</t>
+  </si>
+  <si>
+    <t>Капучино.jpg</t>
+  </si>
+  <si>
+    <t>Капучино фисташковый.jpg</t>
+  </si>
+  <si>
+    <t>Латте.jpg</t>
+  </si>
+  <si>
+    <t>Гляссе.jpg</t>
+  </si>
+  <si>
+    <t>Раф.jpg</t>
+  </si>
+  <si>
+    <t>Двойной эспрессо</t>
+  </si>
+  <si>
+    <t>Двойной эспрессо.jpg</t>
+  </si>
+  <si>
+    <t>300мл</t>
+  </si>
+  <si>
+    <t>Морс, компот</t>
+  </si>
+  <si>
+    <t>Морс клюква</t>
+  </si>
+  <si>
+    <t>Морс облепиха</t>
+  </si>
+  <si>
+    <t>Морс шиповник</t>
+  </si>
+  <si>
+    <t>Морс малина и черная смородина</t>
+  </si>
+  <si>
+    <t>Морс клюква.jpg</t>
+  </si>
+  <si>
+    <t>Морс облепиха.jpg</t>
+  </si>
+  <si>
+    <t>Морс шиповник.jpg</t>
+  </si>
+  <si>
+    <t>Морс малина и черная смородина.jpg</t>
+  </si>
+  <si>
+    <t>Тонизирующий и освежающий напиток. Он обладает кисло-сладким вкусом с ненавязчивой горчинкой</t>
+  </si>
+  <si>
+    <t>Витаминный напиток с приятным кисло-сладким вкусом и ярким ароматом.</t>
+  </si>
+  <si>
+    <t>Яркий напиток со вкусом и насыщенным ароматом летних ягод</t>
+  </si>
+  <si>
+    <t>Необычный вкус и источник витаминов</t>
+  </si>
+  <si>
+    <t>Домашние компоты</t>
+  </si>
+  <si>
+    <t>Домашние компоты.jpg</t>
+  </si>
+  <si>
+    <t>Лимонад, сок</t>
+  </si>
+  <si>
+    <t>Тархун лимонад</t>
+  </si>
+  <si>
+    <t>Дюшес лимонад</t>
+  </si>
+  <si>
+    <t>Лимон лимонад</t>
+  </si>
+  <si>
+    <t>Манго-апельсин лимонад</t>
+  </si>
+  <si>
+    <t>J7 Мультифрукт</t>
+  </si>
+  <si>
+    <t>J7 Яблоко</t>
+  </si>
+  <si>
+    <t>J7 Вишня</t>
+  </si>
+  <si>
+    <t>J7 Ананас</t>
+  </si>
+  <si>
+    <t>J7 Апельсин</t>
+  </si>
+  <si>
+    <t>Тархун лимонад.jpg</t>
+  </si>
+  <si>
+    <t>Дюшес лимонад.jpg</t>
+  </si>
+  <si>
+    <t>Лимон лимонад.jpg</t>
+  </si>
+  <si>
+    <t>Манго-апельсин лимонад.jpg</t>
+  </si>
+  <si>
+    <t>J7 Мультифрукт.jpg</t>
+  </si>
+  <si>
+    <t>J7 Яблоко.jpg</t>
+  </si>
+  <si>
+    <t>J7 Вишня.jpg</t>
+  </si>
+  <si>
+    <t>J7 Ананас.jpg</t>
+  </si>
+  <si>
+    <t>J7 Апельсин.jpg</t>
+  </si>
+  <si>
+    <t>Напитки</t>
+  </si>
+  <si>
+    <t>Кока-Кола</t>
+  </si>
+  <si>
+    <t>Фанта</t>
+  </si>
+  <si>
+    <t>Спрайт</t>
+  </si>
+  <si>
+    <t>Швепс Тоник</t>
+  </si>
+  <si>
+    <t>Адреналин Раш</t>
+  </si>
+  <si>
+    <t>Ред Булл</t>
+  </si>
+  <si>
+    <t>Татни газ.</t>
+  </si>
+  <si>
+    <t>Татни без газ.</t>
+  </si>
+  <si>
+    <t>Кока-Кола.jpg</t>
+  </si>
+  <si>
+    <t>Фанта.jpg</t>
+  </si>
+  <si>
+    <t>Спрайт.jpg</t>
+  </si>
+  <si>
+    <t>Швепс Тоник.jpg</t>
+  </si>
+  <si>
+    <t>Адреналин Раш.jpg</t>
+  </si>
+  <si>
+    <t>Ред Булл.jpg</t>
+  </si>
+  <si>
+    <t>Татни газ.jpg</t>
+  </si>
+  <si>
+    <t>Татни без газ.jpg</t>
+  </si>
+  <si>
+    <t>Коктейли</t>
+  </si>
+  <si>
+    <t>Мохито б/а</t>
+  </si>
+  <si>
+    <t>Мохито клубничный б/а</t>
+  </si>
+  <si>
+    <t>Санрайз б/а</t>
+  </si>
+  <si>
+    <t>Секс на пляже б/а</t>
+  </si>
+  <si>
+    <t>Голубая лагуна б/а</t>
+  </si>
+  <si>
+    <t>Пина Колада б/а</t>
+  </si>
+  <si>
+    <t>Тропик бум б/а</t>
+  </si>
+  <si>
+    <t>Малиновый всплеск б/а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Классическое сочетание мяты, лимонного фреша и лайма. Насыщает, тонизирует и утоляет жажду в жаркие, летние дни. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Этот коктейль  отличается от классики  лишь добавлением свежей клубники, но какое новое звучание он приобретает! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В основе коктейля лежит нежный, мягкий, цитрусовый вкус с тонкими  нотками гренадина. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кусочек океана в бокале, а необычный  вкус даёт беспроигрышное сочетание ананасового сока, сиропа блю кюрасао и лимонного фреша. </t>
+  </si>
+  <si>
+    <t>Любимое многими сочетание апельсинового сока, клюквенного морса и клубники даёт мягкий и фруктовый  вкус.</t>
+  </si>
+  <si>
+    <t>Сливочное наслаждение, дополняемое нотками ананаса и кокоса. Подается вместе со взвитыми сливками, которые оттеняют вкус этого нежности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Идеальный микс манго и маракуйи, отлично сочетаемый с ананасовым соком. Коктейль, переносящий вас в самые жаркие латинские страны. </t>
+  </si>
+  <si>
+    <t>Ягодный вкус, отлично подчёркиваемый нотками ананаса и манго, заставит вас выпить этот коктейль весь, до последней капли.</t>
+  </si>
+  <si>
+    <t>Мохито.jpg</t>
+  </si>
+  <si>
+    <t>Мохито клубничный.jpg</t>
+  </si>
+  <si>
+    <t>Санрайз.jpg</t>
+  </si>
+  <si>
+    <t>Голубая лагуна.jpg</t>
+  </si>
+  <si>
+    <t>Секс на пляже.jpg</t>
+  </si>
+  <si>
+    <t>Тропик бум.jpg</t>
+  </si>
+  <si>
+    <t>Малиновый всплеск.jpg</t>
+  </si>
+  <si>
+    <t>Молочные коктейли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ванильный </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клубничный </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вишневый </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шоколадный </t>
+  </si>
+  <si>
+    <t>Ванильный.jpg</t>
+  </si>
+  <si>
+    <t>Клубничный.jpg</t>
+  </si>
+  <si>
+    <t>Вишневый.jpg</t>
+  </si>
+  <si>
+    <t>Шоколадный.jpg</t>
+  </si>
+  <si>
+    <t>Десерты</t>
+  </si>
+  <si>
+    <t>Летний пай</t>
+  </si>
+  <si>
+    <t>Медовый с клюквой</t>
+  </si>
+  <si>
+    <t>Микадо</t>
+  </si>
+  <si>
+    <t>Тирамису</t>
+  </si>
+  <si>
+    <t>Три шоколада</t>
+  </si>
+  <si>
+    <t>Эклер ваниль</t>
+  </si>
+  <si>
+    <t>Эклер шоколад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чизкейк </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брауни </t>
+  </si>
+  <si>
+    <t>Эклер Наполеон</t>
+  </si>
+  <si>
+    <t>Эклер кокосовый</t>
+  </si>
+  <si>
+    <t>Эклер смородина</t>
+  </si>
+  <si>
+    <t>Микадо.jpg</t>
+  </si>
+  <si>
+    <t>Тирамису.jpg</t>
+  </si>
+  <si>
+    <t>Медовый с клюквой.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чизкейк.jpg </t>
+  </si>
+  <si>
+    <t>Брауни.jpg</t>
+  </si>
+  <si>
+    <t>Летний пай.jpg</t>
+  </si>
+  <si>
+    <t>Три шоколада.jpg</t>
+  </si>
+  <si>
+    <t>Эклер ваниль.jpg</t>
+  </si>
+  <si>
+    <t>Эклер шоколад.jpg</t>
+  </si>
+  <si>
+    <t>Эклер Наполеон.jpg</t>
+  </si>
+  <si>
+    <t>Эклер кокосовый.jpg</t>
+  </si>
+  <si>
+    <t>Эклер смородина.jpg</t>
+  </si>
+  <si>
+    <t>115г / 394ккал</t>
+  </si>
+  <si>
+    <t>130г / 385ккал</t>
+  </si>
+  <si>
+    <t>130г / 345ккал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110г / 282ккал </t>
+  </si>
+  <si>
+    <t>120г / 459ккал</t>
+  </si>
+  <si>
+    <t>200г / 358ккал</t>
+  </si>
+  <si>
+    <t>120г / 405ккал</t>
+  </si>
+  <si>
+    <t>55г / 144ккал</t>
+  </si>
+  <si>
+    <t>70г / 324ккал</t>
+  </si>
+  <si>
+    <t>60г / 245ккал</t>
+  </si>
+  <si>
+    <t>55г / 350ккал</t>
+  </si>
+  <si>
+    <t>Французское заварное тесто, наполненное нежным смородиновым кремом, покрытое глянцевой глазурью</t>
+  </si>
+  <si>
+    <t>Французское заварное тесто с нежным кокосовым кремом, покрытое белой глазурью с добавлением кокосовой стружки</t>
+  </si>
+  <si>
+    <t>Французское заварное тесто с начинкой из нежного шоколадного мусса</t>
+  </si>
+  <si>
+    <t>Французское заварное тесто, сливочный заварной крем, тающий белый бельгийском шоколад</t>
+  </si>
+  <si>
+    <t>Французское заварное тесто в сочетании с ванильно – сливочным кремом</t>
+  </si>
+  <si>
+    <t>Гармония трех шоколадных муссов на нежном шоколадном бисквите</t>
+  </si>
+  <si>
+    <t>Классический итальянский десерт, в основе которого сыр маскарпоне, печенье савоярди пропитанное кофе с амаретто</t>
+  </si>
+  <si>
+    <t>Многослойное пирожное из нежного песочного теста с шоколадно-сливочным кремом и карамелью</t>
+  </si>
+  <si>
+    <t>Медовые коржи со сметанно-сливочным кремом и прослойкой клюквенного желе</t>
+  </si>
+  <si>
+    <t>Нежный заварной крем с запечёнными лесными ягодами на апельсиновом бисквите</t>
+  </si>
+  <si>
+    <t>Сочетание сливочного сыра и сметаны на хрустящей вафельной основе</t>
+  </si>
+  <si>
+    <t>Шоколадный кекс с карамельной пропиткой и лесными орехами, украшен классическим грильяжем</t>
+  </si>
+  <si>
+    <t>55г / 325ккал</t>
+  </si>
+  <si>
+    <t>Мороженое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клубника </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваниль </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шоколад </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вишня </t>
+  </si>
+  <si>
+    <t>Клубника.jpg</t>
+  </si>
+  <si>
+    <t>Ваниль.jpg</t>
+  </si>
+  <si>
+    <t>Шоколад.jpg</t>
+  </si>
+  <si>
+    <t>Вишня.jpg</t>
+  </si>
+  <si>
+    <t>Фрукты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ананас </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Банан </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виноград </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Груша </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киви </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яблоко </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мандарин </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лимон </t>
+  </si>
+  <si>
+    <t>Банан.jpg</t>
+  </si>
+  <si>
+    <t>Виноград.jpg</t>
+  </si>
+  <si>
+    <t>Груша.jpg</t>
+  </si>
+  <si>
+    <t>Киви.jpg</t>
+  </si>
+  <si>
+    <t>Яблоко.jpg</t>
+  </si>
+  <si>
+    <t>Мандарин.jpg</t>
+  </si>
+  <si>
+    <t>Лимон.jpg</t>
+  </si>
+  <si>
+    <t>Апельсин</t>
+  </si>
+  <si>
+    <t>Апельсин.jpg</t>
+  </si>
+  <si>
+    <t>Роллы</t>
+  </si>
+  <si>
+    <t>Цезарь ролл</t>
+  </si>
+  <si>
+    <t>Фиш ролл</t>
+  </si>
+  <si>
+    <t>Шримп ролл</t>
+  </si>
+  <si>
+    <t>150ккал</t>
+  </si>
+  <si>
+    <t>Лепёшка тортилья, куриное филе, сыр моцарелла, соус цезарь, свежие помидоры</t>
+  </si>
+  <si>
+    <t>Лепёшка тортилья, лосось, соус тартар, салат айсберг, сыр моцарелла, свежие помидоры</t>
+  </si>
+  <si>
+    <t>185ккал</t>
+  </si>
+  <si>
+    <t>Шримп ролл, лепёшка тортилья, креветки тигровые, соус тартар, сыр моцарелла, свежие огурцы</t>
+  </si>
+  <si>
+    <t>250ккал</t>
+  </si>
+  <si>
+    <t>Цезарь ролл.jpg</t>
+  </si>
+  <si>
+    <t>Фиш ролл.jpg</t>
+  </si>
+  <si>
+    <t>Шримп ролл.jpg</t>
+  </si>
+  <si>
+    <t>Сэндвичи</t>
+  </si>
+  <si>
+    <t>С окороком</t>
+  </si>
+  <si>
+    <t>С лососем</t>
+  </si>
+  <si>
+    <t>С индейкой</t>
+  </si>
+  <si>
+    <t>Итальянский</t>
+  </si>
+  <si>
+    <t>Куриный</t>
+  </si>
+  <si>
+    <t>Американский хлеб Harry's, куриное филе в/к, салат айсберг, соус чесночный, соус из свежих томатов, сыр моцарелла, свежие огурцы, помидоры</t>
+  </si>
+  <si>
+    <t>262ккал</t>
+  </si>
+  <si>
+    <t>350ккал</t>
+  </si>
+  <si>
+    <t>Американский хлеб Harry's, пепперони и ветчина, сыр моцарелла, салат айсберг, свежие помидоры, огурцы, маонский соус, соус из свежих томатов</t>
+  </si>
+  <si>
+    <t>383ккал</t>
+  </si>
+  <si>
+    <t>Американский хлеб Harry's, ветчина из мяса индейки, салат айсберг, маонский соус, соус из свежих томатов, свежие огурцы и помидоры</t>
+  </si>
+  <si>
+    <t>206ккал</t>
+  </si>
+  <si>
+    <t>Американский хлеб Harry's, сыр Филадельфия, лосось, свежие огурцы</t>
+  </si>
+  <si>
+    <t>359ккал</t>
+  </si>
+  <si>
+    <t>Американский хлеб Harry's, свиной окорок в/к, салат айсберг, свежие помидоры, огурцы, моцарелла, маонский соус</t>
+  </si>
+  <si>
+    <t>С окороком.jpg</t>
+  </si>
+  <si>
+    <t>С лососем.jpg</t>
+  </si>
+  <si>
+    <t>С индейкой.jpg</t>
+  </si>
+  <si>
+    <t>Итальянский.jpg</t>
+  </si>
+  <si>
+    <t>Куриный.jpg</t>
+  </si>
+  <si>
+    <t>Салаты</t>
+  </si>
+  <si>
+    <t>Греческий салат</t>
+  </si>
+  <si>
+    <t>Фунчоза с овощами</t>
+  </si>
+  <si>
+    <t>Фунчоза с овощами.jpg</t>
+  </si>
+  <si>
+    <t>Греческий салат.jpg</t>
+  </si>
+  <si>
+    <t>Свежи огурцы, помидоры, болгарский перец, маслины/оливки, сыр Фета, итальянские травы, оливковое масло</t>
+  </si>
+  <si>
+    <t>150г / 170ккал</t>
+  </si>
+  <si>
+    <t>Фунчоза, свежие огурцы, морковь, перец болгарский, кунжут</t>
+  </si>
+  <si>
+    <t>150г / 129ккал</t>
+  </si>
+  <si>
+    <t>Пиво</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хайнекен </t>
+  </si>
+  <si>
+    <t>Корона Экстра</t>
+  </si>
+  <si>
+    <t>Леффе Блонд</t>
+  </si>
+  <si>
+    <t>Леффе Брюн</t>
+  </si>
+  <si>
+    <t>Пауланер Мюнхенское</t>
+  </si>
+  <si>
+    <t>Пауланер Хефе Вайсбир</t>
+  </si>
+  <si>
+    <t>Светлое фильтрованное, Армения, 4,8%</t>
+  </si>
+  <si>
+    <t>Светлое фильтрованное, Мексика, 4,5%</t>
+  </si>
+  <si>
+    <t>330мл</t>
+  </si>
+  <si>
+    <t>Светлое фильтрованное, Бельгия, 6,6%</t>
+  </si>
+  <si>
+    <t>Темное фильтрованное, Бельгия, 6,5%</t>
+  </si>
+  <si>
+    <t>Светлое фильтрованное, Германия, 4,9%</t>
+  </si>
+  <si>
+    <t>Светлое нефильтрованное, Германия, 5,0%</t>
+  </si>
+  <si>
+    <t>Светлое фильтрованное, Германия, 0%</t>
+  </si>
+  <si>
+    <t>Клаусталер б/а</t>
+  </si>
+  <si>
+    <t>470мл</t>
+  </si>
+  <si>
+    <t>Светлое фильтрованное, Нидерланды, 4,8%</t>
+  </si>
+  <si>
+    <t>Хайнекен.jpg</t>
+  </si>
+  <si>
+    <t>Корона Экстра.jpg</t>
+  </si>
+  <si>
+    <t>Леффе Блонд.jpg</t>
+  </si>
+  <si>
+    <t>Леффе Брюн.jpg</t>
+  </si>
+  <si>
+    <t>Пауланер Мюнхенское.jpg</t>
+  </si>
+  <si>
+    <t>Пауланер Хефе Вайсбир.jpg</t>
+  </si>
+  <si>
+    <t>Клаусталер.jpg</t>
+  </si>
+  <si>
+    <t>Арахис</t>
+  </si>
+  <si>
+    <t>Арахис.jpg</t>
+  </si>
+  <si>
+    <t>Чипсы Принглз</t>
+  </si>
+  <si>
+    <t>Чипсы Принглз.jpg</t>
+  </si>
+  <si>
+    <t>Киликия</t>
+  </si>
+  <si>
+    <t>Киликия.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,12 +1176,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -226,12 +1218,20 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,8 +1271,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A87AA0C3-973D-4BDE-877A-789796FB22F9}" name="Меню" displayName="Меню" ref="A1:F16" totalsRowShown="0">
-  <autoFilter ref="A1:F16" xr:uid="{A87AA0C3-973D-4BDE-877A-789796FB22F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A87AA0C3-973D-4BDE-877A-789796FB22F9}" name="Меню" displayName="Меню" ref="A1:F431" totalsRowShown="0">
+  <autoFilter ref="A1:F431" xr:uid="{A87AA0C3-973D-4BDE-877A-789796FB22F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -555,21 +1555,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="61.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="61.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -586,39 +1586,37 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="6">
         <v>3000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -632,270 +1630,4510 @@
         <v>3500</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>3700</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1300</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1600</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>280</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="1">
-        <v>280</v>
+        <v>1700</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="1">
-        <v>280</v>
+        <v>1800</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="1">
-        <v>280</v>
+        <v>1800</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1">
-        <v>150</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1">
-        <v>150</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
+      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="1">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
+      <c r="B16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D16" s="1">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1">
+        <v>280</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1">
+        <v>280</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1">
+        <v>280</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1">
+        <v>280</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1">
+        <v>280</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1">
+        <v>280</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1">
+        <v>280</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1">
+        <v>280</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1">
+        <v>280</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1">
+        <v>280</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1">
+        <v>280</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="1">
+        <v>280</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1">
+        <v>280</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="1">
+        <v>280</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="1">
+        <v>280</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="1">
+        <v>280</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="1">
+        <v>280</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1">
+        <v>280</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="1">
+        <v>280</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="1">
+        <v>280</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="1">
+        <v>550</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="1">
+        <v>550</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="1">
+        <v>550</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="1">
+        <v>550</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="1">
+        <v>550</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="1">
+        <v>80</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="1">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1">
+        <v>150</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="1">
+        <v>120</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="1">
+        <v>140</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="1">
+        <v>170</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="1">
+        <v>160</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="1">
+        <v>180</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="1">
+        <v>190</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="1">
+        <v>110</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="1">
+        <v>110</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="1">
+        <v>110</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="1">
+        <v>110</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="1">
+        <v>110</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="11">
+        <v>120</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="11">
+        <v>120</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="11">
+        <v>110</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="1">
+        <v>110</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="11">
+        <v>220</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="11">
+        <v>220</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="11">
+        <v>220</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="11">
+        <v>220</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="11">
+        <v>220</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="1">
+        <v>120</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="1">
+        <v>120</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="1">
+        <v>120</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="1">
+        <v>120</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="1">
+        <v>150</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="1">
+        <v>160</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="1">
+        <v>130</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="1">
+        <v>130</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="1">
+        <v>250</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="1">
+        <v>250</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" s="1">
+        <v>250</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" s="1">
+        <v>250</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="1">
+        <v>250</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="1">
+        <v>250</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="1">
+        <v>250</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" s="1">
+        <v>250</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D90" s="1">
+        <v>220</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="1">
+        <v>220</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" s="1">
+        <v>220</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" s="1">
+        <v>220</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" s="1">
+        <v>280</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D96" s="1">
+        <v>280</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D97" s="1">
+        <v>280</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D98" s="1">
+        <v>280</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D99" s="1">
+        <v>280</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D100" s="1">
+        <v>280</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D101" s="1">
+        <v>280</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D102" s="1">
+        <v>160</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="1">
+        <v>160</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D104" s="1">
+        <v>160</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D105" s="1">
+        <v>160</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" s="1">
+        <v>160</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D108" s="1">
+        <v>70</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" s="1">
+        <v>70</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D110" s="1">
+        <v>70</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D111" s="1">
+        <v>70</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" s="1">
+        <v>80</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D114" s="1">
+        <v>60</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D115" s="1">
+        <v>40</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" s="1">
+        <v>70</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D117" s="1">
+        <v>60</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D118" s="1">
+        <v>60</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" s="1">
+        <v>40</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D120" s="1">
+        <v>60</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D121" s="1">
+        <v>60</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D123" s="1">
+        <v>290</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D124" s="1">
+        <v>290</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D125" s="1">
+        <v>290</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D127" s="11">
+        <v>260</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D128" s="11">
+        <v>260</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D129" s="11">
+        <v>260</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D130" s="11">
+        <v>260</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D131" s="11">
+        <v>260</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133" s="1">
+        <v>230</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D134" s="1">
+        <v>210</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D136" s="1">
+        <v>180</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D137" s="1">
+        <v>190</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D138" s="1">
+        <v>220</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D139" s="1">
+        <v>210</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D140" s="1">
+        <v>210</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D141" s="1">
+        <v>330</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D142" s="1">
+        <v>330</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D143" s="1">
+        <v>200</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D145" s="1">
+        <v>180</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" s="1">
+        <v>250</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D147" s="1">
+        <v>300</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="1">
+        <v>180</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" s="1">
+        <v>180</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="3"/>
+    </row>
+    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="3"/>
+    </row>
+    <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="3"/>
+    </row>
+    <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="3"/>
+    </row>
+    <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="3"/>
+    </row>
+    <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2"/>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="3"/>
+    </row>
+    <row r="308" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="3"/>
+    </row>
+    <row r="312" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2"/>
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2"/>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="3"/>
+    </row>
+    <row r="317" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2"/>
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="3"/>
+    </row>
+    <row r="319" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2"/>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="2"/>
+      <c r="F319" s="3"/>
+    </row>
+    <row r="320" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2"/>
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="3"/>
+    </row>
+    <row r="321" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2"/>
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="3"/>
+    </row>
+    <row r="322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2"/>
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2"/>
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2"/>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2"/>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2"/>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="2"/>
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2"/>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="2"/>
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2"/>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="3"/>
+    </row>
+    <row r="333" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="3"/>
+    </row>
+    <row r="334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2"/>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2"/>
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2"/>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="3"/>
+    </row>
+    <row r="339" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2"/>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2"/>
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2"/>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="3"/>
+    </row>
+    <row r="344" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2"/>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="3"/>
+    </row>
+    <row r="345" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2"/>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="2"/>
+      <c r="F345" s="3"/>
+    </row>
+    <row r="346" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2"/>
+      <c r="B347" s="2"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2"/>
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+      <c r="B349" s="2"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="2"/>
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="3"/>
+    </row>
+    <row r="351" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2"/>
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="3"/>
+    </row>
+    <row r="352" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="3"/>
+    </row>
+    <row r="353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2"/>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="3"/>
+    </row>
+    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2"/>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="3"/>
+    </row>
+    <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2"/>
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="3"/>
+    </row>
+    <row r="356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2"/>
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="3"/>
+    </row>
+    <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2"/>
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="3"/>
+    </row>
+    <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2"/>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="3"/>
+    </row>
+    <row r="359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2"/>
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="2"/>
+      <c r="F359" s="3"/>
+    </row>
+    <row r="360" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="2"/>
+      <c r="F360" s="3"/>
+    </row>
+    <row r="361" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2"/>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="3"/>
+    </row>
+    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2"/>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2"/>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="2"/>
+      <c r="F363" s="3"/>
+    </row>
+    <row r="364" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2"/>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="3"/>
+    </row>
+    <row r="365" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2"/>
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="3"/>
+    </row>
+    <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="3"/>
+    </row>
+    <row r="367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="2"/>
+      <c r="F367" s="3"/>
+    </row>
+    <row r="368" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="3"/>
+    </row>
+    <row r="369" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2"/>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="3"/>
+    </row>
+    <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2"/>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="3"/>
+    </row>
+    <row r="371" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2"/>
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="3"/>
+    </row>
+    <row r="372" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="3"/>
+    </row>
+    <row r="373" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2"/>
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="3"/>
+    </row>
+    <row r="374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="3"/>
+    </row>
+    <row r="375" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2"/>
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="3"/>
+    </row>
+    <row r="376" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="2"/>
+      <c r="F376" s="3"/>
+    </row>
+    <row r="377" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2"/>
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="2"/>
+      <c r="F377" s="3"/>
+    </row>
+    <row r="378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2"/>
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="2"/>
+      <c r="F378" s="3"/>
+    </row>
+    <row r="379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="2"/>
+      <c r="F379" s="3"/>
+    </row>
+    <row r="380" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2"/>
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="2"/>
+      <c r="F380" s="3"/>
+    </row>
+    <row r="381" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2"/>
+      <c r="B381" s="2"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="2"/>
+      <c r="F381" s="3"/>
+    </row>
+    <row r="382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2"/>
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="2"/>
+      <c r="F382" s="3"/>
+    </row>
+    <row r="383" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2"/>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="2"/>
+      <c r="F383" s="3"/>
+    </row>
+    <row r="384" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2"/>
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="2"/>
+      <c r="F384" s="3"/>
+    </row>
+    <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2"/>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="2"/>
+      <c r="F385" s="3"/>
+    </row>
+    <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="2"/>
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="2"/>
+      <c r="F386" s="3"/>
+    </row>
+    <row r="387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="2"/>
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="2"/>
+      <c r="F387" s="3"/>
+    </row>
+    <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2"/>
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="2"/>
+      <c r="F388" s="3"/>
+    </row>
+    <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="2"/>
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="2"/>
+      <c r="F389" s="3"/>
+    </row>
+    <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="2"/>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="2"/>
+      <c r="F390" s="3"/>
+    </row>
+    <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="2"/>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="2"/>
+      <c r="F391" s="3"/>
+    </row>
+    <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="2"/>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="2"/>
+      <c r="F392" s="3"/>
+    </row>
+    <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="2"/>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="2"/>
+      <c r="F393" s="3"/>
+    </row>
+    <row r="394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="2"/>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="2"/>
+      <c r="F394" s="3"/>
+    </row>
+    <row r="395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="2"/>
+      <c r="F395" s="3"/>
+    </row>
+    <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="2"/>
+      <c r="F396" s="3"/>
+    </row>
+    <row r="397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="2"/>
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="2"/>
+      <c r="F397" s="3"/>
+    </row>
+    <row r="398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="2"/>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="2"/>
+      <c r="F398" s="3"/>
+    </row>
+    <row r="399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2"/>
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="2"/>
+      <c r="F399" s="3"/>
+    </row>
+    <row r="400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="2"/>
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="2"/>
+      <c r="F400" s="3"/>
+    </row>
+    <row r="401" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="2"/>
+      <c r="B401" s="2"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="2"/>
+      <c r="F401" s="3"/>
+    </row>
+    <row r="402" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="2"/>
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="2"/>
+      <c r="F402" s="3"/>
+    </row>
+    <row r="403" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="2"/>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="2"/>
+      <c r="F403" s="3"/>
+    </row>
+    <row r="404" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="2"/>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="2"/>
+      <c r="F404" s="3"/>
+    </row>
+    <row r="405" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="2"/>
+      <c r="F405" s="3"/>
+    </row>
+    <row r="406" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="2"/>
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="2"/>
+      <c r="F406" s="3"/>
+    </row>
+    <row r="407" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="2"/>
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="2"/>
+      <c r="F407" s="3"/>
+    </row>
+    <row r="408" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="2"/>
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="2"/>
+      <c r="F408" s="3"/>
+    </row>
+    <row r="409" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="2"/>
+      <c r="B409" s="2"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="2"/>
+      <c r="F409" s="3"/>
+    </row>
+    <row r="410" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="2"/>
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="1"/>
+      <c r="E410" s="2"/>
+      <c r="F410" s="3"/>
+    </row>
+    <row r="411" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="2"/>
+      <c r="F411" s="3"/>
+    </row>
+    <row r="412" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="2"/>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="2"/>
+      <c r="F412" s="3"/>
+    </row>
+    <row r="413" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="2"/>
+      <c r="F413" s="3"/>
+    </row>
+    <row r="414" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="2"/>
+      <c r="F414" s="3"/>
+    </row>
+    <row r="415" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="2"/>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="1"/>
+      <c r="E415" s="2"/>
+      <c r="F415" s="3"/>
+    </row>
+    <row r="416" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="2"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="3"/>
+    </row>
+    <row r="417" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="1"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="3"/>
+    </row>
+    <row r="418" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="2"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="3"/>
+    </row>
+    <row r="419" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="2"/>
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="1"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="3"/>
+    </row>
+    <row r="420" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="2"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="2"/>
+      <c r="F420" s="3"/>
+    </row>
+    <row r="421" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="2"/>
+      <c r="B421" s="2"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="1"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="3"/>
+    </row>
+    <row r="422" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="2"/>
+      <c r="B422" s="2"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="1"/>
+      <c r="E422" s="2"/>
+      <c r="F422" s="3"/>
+    </row>
+    <row r="423" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="2"/>
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="1"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="3"/>
+    </row>
+    <row r="424" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="2"/>
+      <c r="B424" s="2"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="1"/>
+      <c r="E424" s="2"/>
+      <c r="F424" s="3"/>
+    </row>
+    <row r="425" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="2"/>
+      <c r="B425" s="2"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="3"/>
+    </row>
+    <row r="426" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="2"/>
+      <c r="B426" s="2"/>
+      <c r="C426" s="2"/>
+      <c r="D426" s="1"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="3"/>
+    </row>
+    <row r="427" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="2"/>
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="1"/>
+      <c r="E427" s="2"/>
+      <c r="F427" s="3"/>
+    </row>
+    <row r="428" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="2"/>
+      <c r="B428" s="2"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="1"/>
+      <c r="E428" s="2"/>
+      <c r="F428" s="3"/>
+    </row>
+    <row r="429" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="2"/>
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="1"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="3"/>
+    </row>
+    <row r="430" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="2"/>
+      <c r="B430" s="2"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="1"/>
+      <c r="E430" s="2"/>
+      <c r="F430" s="3"/>
+    </row>
+    <row r="431" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="2"/>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="1"/>
+      <c r="E431" s="2"/>
+      <c r="F431" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\халтура\Pablo Hookahbar\Pablo-hookahbar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4797C4D6-2410-4024-8493-139BFC360777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2BCA5F-02EC-45B8-B1BA-3A4C196F4E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="4215" windowWidth="19245" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="377">
   <si>
     <t>Назание</t>
   </si>
@@ -1145,6 +1145,21 @@
   </si>
   <si>
     <t>Киликия.jpg</t>
+  </si>
+  <si>
+    <t>Зеленый чай с имбирем, корицей и медом, корень имбиря, лимон</t>
+  </si>
+  <si>
+    <t>Фруктовый чай (на основе черного), клубничный десерт, клубника, маракуйя</t>
+  </si>
+  <si>
+    <t>Фруктовый чай (на основе черного), клубничный десерт, малина</t>
+  </si>
+  <si>
+    <t>Черный облепиховый чай, облепиха, имбирь</t>
+  </si>
+  <si>
+    <t>Черный индийский чай с пряностями (корица, анис, гвоздика, имбирь, кориандр, чёрный перец, кардамон, тмин), молоко, мед</t>
   </si>
 </sst>
 </file>
@@ -1558,8 +1573,8 @@
   <dimension ref="A1:F431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2241,9 @@
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -2242,7 +2259,9 @@
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -2258,7 +2277,9 @@
       <c r="E42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
@@ -2274,7 +2295,9 @@
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -2290,7 +2313,9 @@
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\халтура\Pablo Hookahbar\Pablo-hookahbar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2BCA5F-02EC-45B8-B1BA-3A4C196F4E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11E2F8-E631-4EFC-B79D-E06A8CC150C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,15 +763,9 @@
     <t>Эклер шоколад.jpg</t>
   </si>
   <si>
-    <t>Эклер Наполеон.jpg</t>
-  </si>
-  <si>
     <t>Эклер кокосовый.jpg</t>
   </si>
   <si>
-    <t>Эклер смородина.jpg</t>
-  </si>
-  <si>
     <t>115г / 394ккал</t>
   </si>
   <si>
@@ -1160,6 +1154,12 @@
   </si>
   <si>
     <t>Черный индийский чай с пряностями (корица, анис, гвоздика, имбирь, кориандр, чёрный перец, кардамон, тмин), молоко, мед</t>
+  </si>
+  <si>
+    <t>Эклер малиновый.jpg</t>
+  </si>
+  <si>
+    <t>Эклер ореховый.jpg</t>
   </si>
 </sst>
 </file>
@@ -1573,8 +1573,8 @@
   <dimension ref="A1:F431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2242,7 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>12</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2278,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3053,10 +3053,10 @@
         <v>280</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3071,10 +3071,10 @@
         <v>280</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3089,10 +3089,10 @@
         <v>280</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3107,10 +3107,10 @@
         <v>280</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,10 +3125,10 @@
         <v>280</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3143,10 +3143,10 @@
         <v>280</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3161,10 +3161,10 @@
         <v>280</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3179,10 +3179,10 @@
         <v>160</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3197,10 +3197,10 @@
         <v>160</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,16 +3209,16 @@
         <v>232</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="D104" s="1">
         <v>160</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3227,16 +3227,16 @@
         <v>233</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D105" s="1">
         <v>160</v>
       </c>
       <c r="E105" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3245,21 +3245,21 @@
         <v>234</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="D106" s="1">
         <v>160</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3270,10 +3270,10 @@
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D108" s="1">
         <v>70</v>
@@ -3284,10 +3284,10 @@
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D109" s="1">
         <v>70</v>
@@ -3298,10 +3298,10 @@
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D110" s="1">
         <v>70</v>
@@ -3312,10 +3312,10 @@
     <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D111" s="1">
         <v>70</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3336,7 +3336,7 @@
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>29</v>
@@ -3350,10 +3350,10 @@
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D114" s="1">
         <v>60</v>
@@ -3364,10 +3364,10 @@
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D115" s="1">
         <v>40</v>
@@ -3378,10 +3378,10 @@
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D116" s="1">
         <v>70</v>
@@ -3392,10 +3392,10 @@
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D117" s="1">
         <v>60</v>
@@ -3406,10 +3406,10 @@
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D118" s="1">
         <v>60</v>
@@ -3420,10 +3420,10 @@
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D119" s="1">
         <v>40</v>
@@ -3434,10 +3434,10 @@
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D120" s="1">
         <v>60</v>
@@ -3448,10 +3448,10 @@
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D121" s="1">
         <v>60</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -3472,60 +3472,60 @@
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D123" s="1">
         <v>290</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D124" s="1">
         <v>290</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D125" s="1">
         <v>290</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -3536,96 +3536,96 @@
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D127" s="11">
         <v>260</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D128" s="11">
         <v>260</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D129" s="11">
         <v>260</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D130" s="11">
         <v>260</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D131" s="11">
         <v>260</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -3636,42 +3636,42 @@
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D133" s="1">
         <v>230</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D134" s="1">
         <v>210</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -3682,28 +3682,28 @@
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D136" s="1">
         <v>180</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D137" s="1">
         <v>190</v>
@@ -3712,70 +3712,70 @@
         <v>12</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D138" s="1">
         <v>220</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D139" s="1">
         <v>210</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D140" s="1">
         <v>210</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D141" s="1">
         <v>330</v>
@@ -3784,16 +3784,16 @@
         <v>12</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D142" s="1">
         <v>330</v>
@@ -3802,25 +3802,25 @@
         <v>12</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D143" s="1">
         <v>200</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3836,10 +3836,10 @@
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D145" s="1">
         <v>180</v>
@@ -3864,10 +3864,10 @@
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D147" s="1">
         <v>300</v>
